--- a/data/pca/factorExposure/factorExposure_2013-04-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-04-18.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>4.956781285941047e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001844521527494203</v>
+      </c>
+      <c r="C2">
+        <v>0.0325939154812343</v>
+      </c>
+      <c r="D2">
+        <v>0.007472918604705303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001809226904820009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.00609735587153195</v>
+      </c>
+      <c r="C4">
+        <v>0.08592406437498055</v>
+      </c>
+      <c r="D4">
+        <v>0.07692580710337739</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.001071857970412431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01347774366701438</v>
+      </c>
+      <c r="C6">
+        <v>0.1089172101121684</v>
+      </c>
+      <c r="D6">
+        <v>0.03511551450505249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002080492931723005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004673091268707936</v>
+      </c>
+      <c r="C7">
+        <v>0.05446840709583042</v>
+      </c>
+      <c r="D7">
+        <v>0.03391717813489389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.000139205043385333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005565423279658697</v>
+      </c>
+      <c r="C8">
+        <v>0.03697202673840655</v>
+      </c>
+      <c r="D8">
+        <v>0.037785347014046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003833466980694964</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004085793962976644</v>
+      </c>
+      <c r="C9">
+        <v>0.07003776765769269</v>
+      </c>
+      <c r="D9">
+        <v>0.07242716896644046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004425674378191088</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005592223353380324</v>
+      </c>
+      <c r="C10">
+        <v>0.06971840464493639</v>
+      </c>
+      <c r="D10">
+        <v>-0.2103298260883058</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.003524740264184905</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.0053320149018219</v>
+      </c>
+      <c r="C11">
+        <v>0.0787783201243656</v>
+      </c>
+      <c r="D11">
+        <v>0.06526922415539227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0001367253521435176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003971088851824988</v>
+      </c>
+      <c r="C12">
+        <v>0.06342226691442739</v>
+      </c>
+      <c r="D12">
+        <v>0.04808143036748804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002967428268970031</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008379748083376427</v>
+      </c>
+      <c r="C13">
+        <v>0.06520521960334438</v>
+      </c>
+      <c r="D13">
+        <v>0.06743700941077511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.001765650071588732</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001443437909287439</v>
+      </c>
+      <c r="C14">
+        <v>0.04672027532764372</v>
+      </c>
+      <c r="D14">
+        <v>0.01090182682345308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001135501383928663</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005896559745577227</v>
+      </c>
+      <c r="C15">
+        <v>0.04140156663237036</v>
+      </c>
+      <c r="D15">
+        <v>0.03217350837641209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.001739370363373048</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004906453892099688</v>
+      </c>
+      <c r="C16">
+        <v>0.06523278804528759</v>
+      </c>
+      <c r="D16">
+        <v>0.04882294268402407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>7.157283112338418e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.00890409417776554</v>
+      </c>
+      <c r="C20">
+        <v>0.06541775406499797</v>
+      </c>
+      <c r="D20">
+        <v>0.05375406573932554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005381490791915371</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009854190277602256</v>
+      </c>
+      <c r="C21">
+        <v>0.02268883971177138</v>
+      </c>
+      <c r="D21">
+        <v>0.03529353863335106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01692979549141967</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006937354974027013</v>
+      </c>
+      <c r="C22">
+        <v>0.09302833487080359</v>
+      </c>
+      <c r="D22">
+        <v>0.1039155729265388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01725356610667995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006752459594019256</v>
+      </c>
+      <c r="C23">
+        <v>0.09384515787106715</v>
+      </c>
+      <c r="D23">
+        <v>0.1044165352037004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.002308999178728346</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004927971520330655</v>
+      </c>
+      <c r="C24">
+        <v>0.07332197416870775</v>
+      </c>
+      <c r="D24">
+        <v>0.06174111229659006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.004294251413186473</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002711988790626358</v>
+      </c>
+      <c r="C25">
+        <v>0.07724095136663152</v>
+      </c>
+      <c r="D25">
+        <v>0.06674233487091241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.006336339216034674</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003699476938965615</v>
+      </c>
+      <c r="C26">
+        <v>0.0426938657314617</v>
+      </c>
+      <c r="D26">
+        <v>0.02851729366857126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.005437324336862471</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0005284303211717608</v>
+      </c>
+      <c r="C28">
+        <v>0.1188326849718635</v>
+      </c>
+      <c r="D28">
+        <v>-0.3111249835180377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001543800758103432</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003089101016049217</v>
+      </c>
+      <c r="C29">
+        <v>0.04954292015222887</v>
+      </c>
+      <c r="D29">
+        <v>0.008531430102997969</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.004026448485942267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008706490942694406</v>
+      </c>
+      <c r="C30">
+        <v>0.1391313334250701</v>
+      </c>
+      <c r="D30">
+        <v>0.1055866949983366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0001064594047439186</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006116805582758083</v>
+      </c>
+      <c r="C31">
+        <v>0.04554186552238963</v>
+      </c>
+      <c r="D31">
+        <v>0.03183521374836864</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0009408308500747693</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003985861591923962</v>
+      </c>
+      <c r="C32">
+        <v>0.0396740563336109</v>
+      </c>
+      <c r="D32">
+        <v>0.01950323809012209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003280140831974236</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007905569971869877</v>
+      </c>
+      <c r="C33">
+        <v>0.08438721779720559</v>
+      </c>
+      <c r="D33">
+        <v>0.07551077720827619</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004780995787558449</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.00375391568930596</v>
+      </c>
+      <c r="C34">
+        <v>0.05753701461887126</v>
+      </c>
+      <c r="D34">
+        <v>0.04768046366916346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.003106910621800373</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004755835812892776</v>
+      </c>
+      <c r="C35">
+        <v>0.03910573684269225</v>
+      </c>
+      <c r="D35">
+        <v>0.01406706045079439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004165897315077398</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001387162757436169</v>
+      </c>
+      <c r="C36">
+        <v>0.02427251323282256</v>
+      </c>
+      <c r="D36">
+        <v>0.02270131461813307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002028753233712132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009499271236682379</v>
+      </c>
+      <c r="C38">
+        <v>0.03454449234875356</v>
+      </c>
+      <c r="D38">
+        <v>0.02147352450552035</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01335525310050634</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0009559202062362285</v>
+      </c>
+      <c r="C39">
+        <v>0.1158873685747671</v>
+      </c>
+      <c r="D39">
+        <v>0.08143705842667828</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009815384195543371</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.001963831858923169</v>
+      </c>
+      <c r="C40">
+        <v>0.08525906352217499</v>
+      </c>
+      <c r="D40">
+        <v>0.02089068731645343</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0004109997959099801</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007274883688529662</v>
+      </c>
+      <c r="C41">
+        <v>0.03870968714163095</v>
+      </c>
+      <c r="D41">
+        <v>0.03487012340034891</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003252569971114262</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003530619514793173</v>
+      </c>
+      <c r="C43">
+        <v>0.0509947252164918</v>
+      </c>
+      <c r="D43">
+        <v>0.02537323256072696</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.003265308519862118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.00336119407660146</v>
+      </c>
+      <c r="C44">
+        <v>0.1106421853144069</v>
+      </c>
+      <c r="D44">
+        <v>0.07938620000471849</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001828535119667807</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002269471375817427</v>
+      </c>
+      <c r="C46">
+        <v>0.03459490369377778</v>
+      </c>
+      <c r="D46">
+        <v>0.03014234208932534</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0009155701812119643</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002629666151209635</v>
+      </c>
+      <c r="C47">
+        <v>0.03826175239907436</v>
+      </c>
+      <c r="D47">
+        <v>0.02342267397677752</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003150523830252871</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.00633959504994499</v>
+      </c>
+      <c r="C48">
+        <v>0.02834555144901731</v>
+      </c>
+      <c r="D48">
+        <v>0.03419154613522381</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01470513991147051</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01445498955320954</v>
+      </c>
+      <c r="C49">
+        <v>0.1752996074475985</v>
+      </c>
+      <c r="D49">
+        <v>0.02399113893148822</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001484298152928882</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003553694313886987</v>
+      </c>
+      <c r="C50">
+        <v>0.04316452873384522</v>
+      </c>
+      <c r="D50">
+        <v>0.03676093641267229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.001099220223883089</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.00424604747178794</v>
+      </c>
+      <c r="C51">
+        <v>0.02138865646918967</v>
+      </c>
+      <c r="D51">
+        <v>0.03120644085603232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0002072918034327809</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02012585641835799</v>
+      </c>
+      <c r="C53">
+        <v>0.1673422162202673</v>
+      </c>
+      <c r="D53">
+        <v>0.0442846074771407</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0007395639626598325</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008646127982214402</v>
+      </c>
+      <c r="C54">
+        <v>0.05556184187286256</v>
+      </c>
+      <c r="D54">
+        <v>0.04213004144014084</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.00406778590418005</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009203978209949139</v>
+      </c>
+      <c r="C55">
+        <v>0.1069783935456832</v>
+      </c>
+      <c r="D55">
+        <v>0.05059169722789277</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.002661729374513957</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01966584304747664</v>
+      </c>
+      <c r="C56">
+        <v>0.1739243938194275</v>
+      </c>
+      <c r="D56">
+        <v>0.0438288650255786</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.007790687468886751</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01924446639079147</v>
+      </c>
+      <c r="C58">
+        <v>0.1051108883024333</v>
+      </c>
+      <c r="D58">
+        <v>0.06160225954542776</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.006850617089757308</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009479115112801908</v>
+      </c>
+      <c r="C59">
+        <v>0.1672146421357592</v>
+      </c>
+      <c r="D59">
+        <v>-0.292287586633655</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.004521302187607303</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02340669270220396</v>
+      </c>
+      <c r="C60">
+        <v>0.2224233066078538</v>
+      </c>
+      <c r="D60">
+        <v>0.02963375519757704</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01504210480970096</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002034029519779002</v>
+      </c>
+      <c r="C61">
+        <v>0.09480338896817177</v>
+      </c>
+      <c r="D61">
+        <v>0.06073051398811762</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1706014564453718</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1437198129703289</v>
+      </c>
+      <c r="C62">
+        <v>0.08254600674965558</v>
+      </c>
+      <c r="D62">
+        <v>0.05204262975477232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001624212322246682</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006378902086438481</v>
+      </c>
+      <c r="C63">
+        <v>0.0599387310336152</v>
+      </c>
+      <c r="D63">
+        <v>0.02453661378317138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.005904659005665081</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.0148346762759883</v>
+      </c>
+      <c r="C64">
+        <v>0.1034570092587151</v>
+      </c>
+      <c r="D64">
+        <v>0.06260194191829913</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.001479455869889977</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01714910174208614</v>
+      </c>
+      <c r="C65">
+        <v>0.1165672530481373</v>
+      </c>
+      <c r="D65">
+        <v>0.02215518107023905</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.00878174445623396</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01237701443661392</v>
+      </c>
+      <c r="C66">
+        <v>0.1570600969076583</v>
+      </c>
+      <c r="D66">
+        <v>0.1197393364984412</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003420225190861787</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01560436780378211</v>
+      </c>
+      <c r="C67">
+        <v>0.06495633062971955</v>
+      </c>
+      <c r="D67">
+        <v>0.03146280738398628</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.006609629356352456</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001004607406409395</v>
+      </c>
+      <c r="C68">
+        <v>0.09967758031991748</v>
+      </c>
+      <c r="D68">
+        <v>-0.2578851197819443</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.003063208228858587</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005792603038428551</v>
+      </c>
+      <c r="C69">
+        <v>0.04888936600805502</v>
+      </c>
+      <c r="D69">
+        <v>0.04268708362404409</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>3.32740216353543e-06</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001759074821771373</v>
+      </c>
+      <c r="C70">
+        <v>0.002120595380056227</v>
+      </c>
+      <c r="D70">
+        <v>0.002007600841866583</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001425749842356377</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006083005081997603</v>
+      </c>
+      <c r="C71">
+        <v>0.1048169076498329</v>
+      </c>
+      <c r="D71">
+        <v>-0.2860638941861393</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005791764228358692</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.0153959297798774</v>
+      </c>
+      <c r="C72">
+        <v>0.148936714354439</v>
+      </c>
+      <c r="D72">
+        <v>0.02438001453106553</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01184304139686833</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02929955111581734</v>
+      </c>
+      <c r="C73">
+        <v>0.2803889560290104</v>
+      </c>
+      <c r="D73">
+        <v>0.04341947985478337</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005147412233707478</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001229265143206764</v>
+      </c>
+      <c r="C74">
+        <v>0.1038164939359586</v>
+      </c>
+      <c r="D74">
+        <v>0.04499141472740106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.004160007195596187</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01071335809467419</v>
+      </c>
+      <c r="C75">
+        <v>0.1321430621479526</v>
+      </c>
+      <c r="D75">
+        <v>0.02638136019898975</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009142646094809919</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02117407411356242</v>
+      </c>
+      <c r="C76">
+        <v>0.1493209393804835</v>
+      </c>
+      <c r="D76">
+        <v>0.06837073274083287</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-1.644047004376116e-05</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02392801139823014</v>
+      </c>
+      <c r="C77">
+        <v>0.1305426814789192</v>
+      </c>
+      <c r="D77">
+        <v>0.06572186443761822</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001631948034271688</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01418950074074297</v>
+      </c>
+      <c r="C78">
+        <v>0.09353153388651754</v>
+      </c>
+      <c r="D78">
+        <v>0.07106574539836102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02405705755271084</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03700973795284747</v>
+      </c>
+      <c r="C79">
+        <v>0.1574180303483686</v>
+      </c>
+      <c r="D79">
+        <v>0.0332527531497922</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.004839590511299164</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01040879566820738</v>
+      </c>
+      <c r="C80">
+        <v>0.04107741924379336</v>
+      </c>
+      <c r="D80">
+        <v>0.03269858854227391</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0007301641184378275</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01457800072936381</v>
+      </c>
+      <c r="C81">
+        <v>0.1243797688195884</v>
+      </c>
+      <c r="D81">
+        <v>0.05533021320245876</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.005483090780528214</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01934349180902812</v>
+      </c>
+      <c r="C82">
+        <v>0.1433940527534441</v>
+      </c>
+      <c r="D82">
+        <v>0.04478656001905056</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008930591787902993</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009924394310811884</v>
+      </c>
+      <c r="C83">
+        <v>0.05517646619613948</v>
+      </c>
+      <c r="D83">
+        <v>0.05020441510599785</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.0124798548958932</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01155667478031882</v>
+      </c>
+      <c r="C84">
+        <v>0.03547685166707665</v>
+      </c>
+      <c r="D84">
+        <v>-0.005271360196526685</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01495888953880586</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02786720281751796</v>
+      </c>
+      <c r="C85">
+        <v>0.1300418966119327</v>
+      </c>
+      <c r="D85">
+        <v>0.0476327644093832</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.001207865512736568</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005391808720114215</v>
+      </c>
+      <c r="C86">
+        <v>0.04822916543224926</v>
+      </c>
+      <c r="D86">
+        <v>0.02247421046479274</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.005359756708188104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01003136881848787</v>
+      </c>
+      <c r="C87">
+        <v>0.1294741489610798</v>
+      </c>
+      <c r="D87">
+        <v>0.07249592163659545</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01303027614577599</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002925313465902882</v>
+      </c>
+      <c r="C88">
+        <v>0.06823389455655836</v>
+      </c>
+      <c r="D88">
+        <v>0.01426724086526611</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01521992296236491</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001233597560849513</v>
+      </c>
+      <c r="C89">
+        <v>0.1558325084350365</v>
+      </c>
+      <c r="D89">
+        <v>-0.3424889828993981</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.003012406322779195</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007284297315559354</v>
+      </c>
+      <c r="C90">
+        <v>0.1367797321572022</v>
+      </c>
+      <c r="D90">
+        <v>-0.3254066438123386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0006419201557054188</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01019291996595107</v>
+      </c>
+      <c r="C91">
+        <v>0.1046843936408005</v>
+      </c>
+      <c r="D91">
+        <v>0.02138602339969841</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.008646461762898908</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0007648400943663384</v>
+      </c>
+      <c r="C92">
+        <v>0.1437858350788938</v>
+      </c>
+      <c r="D92">
+        <v>-0.3287365452979406</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0009537241390589748</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005070190316206254</v>
+      </c>
+      <c r="C93">
+        <v>0.116065316336701</v>
+      </c>
+      <c r="D93">
+        <v>-0.3132272729848486</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.003124773610369198</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02230076624141324</v>
+      </c>
+      <c r="C94">
+        <v>0.1564345333650891</v>
+      </c>
+      <c r="D94">
+        <v>0.03657495907778943</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004972599679051899</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.0159323464081686</v>
+      </c>
+      <c r="C95">
+        <v>0.1253761479645421</v>
+      </c>
+      <c r="D95">
+        <v>0.06295697623265044</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001560789288781316</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.0339912743658546</v>
+      </c>
+      <c r="C97">
+        <v>0.1813907663731944</v>
+      </c>
+      <c r="D97">
+        <v>0.03063990888627285</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.00417297552462316</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03633813969833764</v>
+      </c>
+      <c r="C98">
+        <v>0.250988414080639</v>
+      </c>
+      <c r="D98">
+        <v>0.04797394895759486</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9833468968402206</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9827361067651499</v>
+      </c>
+      <c r="C99">
+        <v>-0.1107945622426157</v>
+      </c>
+      <c r="D99">
+        <v>-0.03003245873756568</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001501364422929266</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003133648183125139</v>
+      </c>
+      <c r="C101">
+        <v>0.04958147708035124</v>
+      </c>
+      <c r="D101">
+        <v>0.008927762733081461</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
